--- a/public/doc/교통비청구서(월단위).xlsx
+++ b/public/doc/교통비청구서(월단위).xlsx
@@ -387,6 +387,45 @@
     <xf numFmtId="0" fontId="9" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
@@ -414,74 +453,35 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -796,7 +796,7 @@
   <dimension ref="A1:AJ39"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" showWhiteSpace="0" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10:F10"/>
+      <selection activeCell="G8" sqref="G8:J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="5.125" defaultRowHeight="24.95" customHeight="1"/>
@@ -808,27 +808,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:36" ht="45" customHeight="1">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="44"/>
-      <c r="C1" s="44"/>
-      <c r="D1" s="44"/>
-      <c r="E1" s="41" t="s">
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="41"/>
-      <c r="G1" s="41"/>
-      <c r="H1" s="41"/>
-      <c r="I1" s="41"/>
-      <c r="J1" s="41"/>
-      <c r="K1" s="41"/>
-      <c r="L1" s="41"/>
-      <c r="M1" s="41"/>
-      <c r="N1" s="41"/>
-      <c r="O1" s="41"/>
-      <c r="P1" s="41"/>
-      <c r="Q1" s="42"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
+      <c r="J1" s="22"/>
+      <c r="K1" s="22"/>
+      <c r="L1" s="22"/>
+      <c r="M1" s="22"/>
+      <c r="N1" s="22"/>
+      <c r="O1" s="22"/>
+      <c r="P1" s="22"/>
+      <c r="Q1" s="23"/>
       <c r="R1" s="8"/>
       <c r="S1" s="8"/>
       <c r="T1" s="8"/>
@@ -851,66 +851,66 @@
       <c r="A2" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="28" t="s">
+      <c r="B2" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="30"/>
-      <c r="G2" s="28" t="s">
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="29"/>
-      <c r="I2" s="29"/>
-      <c r="J2" s="30"/>
-      <c r="K2" s="28" t="s">
+      <c r="H2" s="36"/>
+      <c r="I2" s="36"/>
+      <c r="J2" s="37"/>
+      <c r="K2" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="L2" s="29"/>
-      <c r="M2" s="29"/>
-      <c r="N2" s="29"/>
-      <c r="O2" s="29"/>
-      <c r="P2" s="29"/>
-      <c r="Q2" s="31"/>
+      <c r="L2" s="36"/>
+      <c r="M2" s="36"/>
+      <c r="N2" s="36"/>
+      <c r="O2" s="36"/>
+      <c r="P2" s="36"/>
+      <c r="Q2" s="38"/>
       <c r="T2" s="2"/>
-      <c r="U2" s="26"/>
-      <c r="V2" s="26"/>
-      <c r="W2" s="27"/>
-      <c r="X2" s="27"/>
-      <c r="Y2" s="27"/>
-      <c r="Z2" s="27"/>
-      <c r="AA2" s="27"/>
-      <c r="AB2" s="27"/>
-      <c r="AC2" s="27"/>
-      <c r="AD2" s="27"/>
-      <c r="AE2" s="27"/>
-      <c r="AF2" s="27"/>
-      <c r="AG2" s="27"/>
-      <c r="AH2" s="27"/>
-      <c r="AI2" s="27"/>
-      <c r="AJ2" s="27"/>
+      <c r="U2" s="40"/>
+      <c r="V2" s="40"/>
+      <c r="W2" s="41"/>
+      <c r="X2" s="41"/>
+      <c r="Y2" s="41"/>
+      <c r="Z2" s="41"/>
+      <c r="AA2" s="41"/>
+      <c r="AB2" s="41"/>
+      <c r="AC2" s="41"/>
+      <c r="AD2" s="41"/>
+      <c r="AE2" s="41"/>
+      <c r="AF2" s="41"/>
+      <c r="AG2" s="41"/>
+      <c r="AH2" s="41"/>
+      <c r="AI2" s="41"/>
+      <c r="AJ2" s="41"/>
     </row>
     <row r="3" spans="1:36" ht="18.95" customHeight="1">
       <c r="A3" s="11">
         <v>1</v>
       </c>
-      <c r="B3" s="13"/>
-      <c r="C3" s="14"/>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="15"/>
-      <c r="G3" s="16"/>
-      <c r="H3" s="17"/>
-      <c r="I3" s="17"/>
-      <c r="J3" s="18"/>
-      <c r="K3" s="19"/>
-      <c r="L3" s="20"/>
-      <c r="M3" s="20"/>
-      <c r="N3" s="20"/>
-      <c r="O3" s="20"/>
-      <c r="P3" s="20"/>
-      <c r="Q3" s="21"/>
+      <c r="B3" s="26"/>
+      <c r="C3" s="27"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="28"/>
+      <c r="G3" s="29"/>
+      <c r="H3" s="30"/>
+      <c r="I3" s="30"/>
+      <c r="J3" s="31"/>
+      <c r="K3" s="32"/>
+      <c r="L3" s="33"/>
+      <c r="M3" s="33"/>
+      <c r="N3" s="33"/>
+      <c r="O3" s="33"/>
+      <c r="P3" s="33"/>
+      <c r="Q3" s="34"/>
       <c r="T3" s="2"/>
       <c r="U3" s="2"/>
       <c r="V3" s="2"/>
@@ -933,326 +933,326 @@
       <c r="A4" s="11">
         <v>2</v>
       </c>
-      <c r="B4" s="13"/>
-      <c r="C4" s="14"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="15"/>
-      <c r="G4" s="16"/>
-      <c r="H4" s="17"/>
-      <c r="I4" s="17"/>
-      <c r="J4" s="18"/>
-      <c r="K4" s="19"/>
-      <c r="L4" s="20"/>
-      <c r="M4" s="20"/>
-      <c r="N4" s="20"/>
-      <c r="O4" s="20"/>
-      <c r="P4" s="20"/>
-      <c r="Q4" s="21"/>
+      <c r="B4" s="26"/>
+      <c r="C4" s="27"/>
+      <c r="D4" s="27"/>
+      <c r="E4" s="27"/>
+      <c r="F4" s="28"/>
+      <c r="G4" s="29"/>
+      <c r="H4" s="30"/>
+      <c r="I4" s="30"/>
+      <c r="J4" s="31"/>
+      <c r="K4" s="32"/>
+      <c r="L4" s="33"/>
+      <c r="M4" s="33"/>
+      <c r="N4" s="33"/>
+      <c r="O4" s="33"/>
+      <c r="P4" s="33"/>
+      <c r="Q4" s="34"/>
       <c r="T4" s="3"/>
       <c r="U4" s="4"/>
-      <c r="V4" s="24"/>
-      <c r="W4" s="24"/>
-      <c r="X4" s="24"/>
-      <c r="Y4" s="24"/>
-      <c r="Z4" s="24"/>
+      <c r="V4" s="39"/>
+      <c r="W4" s="39"/>
+      <c r="X4" s="39"/>
+      <c r="Y4" s="39"/>
+      <c r="Z4" s="39"/>
       <c r="AA4" s="4"/>
-      <c r="AB4" s="24"/>
-      <c r="AC4" s="24"/>
-      <c r="AD4" s="24"/>
-      <c r="AE4" s="24"/>
-      <c r="AF4" s="24"/>
-      <c r="AG4" s="24"/>
-      <c r="AH4" s="24"/>
-      <c r="AI4" s="24"/>
-      <c r="AJ4" s="24"/>
+      <c r="AB4" s="39"/>
+      <c r="AC4" s="39"/>
+      <c r="AD4" s="39"/>
+      <c r="AE4" s="39"/>
+      <c r="AF4" s="39"/>
+      <c r="AG4" s="39"/>
+      <c r="AH4" s="39"/>
+      <c r="AI4" s="39"/>
+      <c r="AJ4" s="39"/>
     </row>
     <row r="5" spans="1:36" ht="18.95" customHeight="1">
       <c r="A5" s="11">
         <v>3</v>
       </c>
-      <c r="B5" s="13"/>
-      <c r="C5" s="14"/>
-      <c r="D5" s="14"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="15"/>
-      <c r="G5" s="16"/>
-      <c r="H5" s="17"/>
-      <c r="I5" s="17"/>
-      <c r="J5" s="18"/>
-      <c r="K5" s="19"/>
-      <c r="L5" s="20"/>
-      <c r="M5" s="20"/>
-      <c r="N5" s="20"/>
-      <c r="O5" s="20"/>
-      <c r="P5" s="20"/>
-      <c r="Q5" s="21"/>
+      <c r="B5" s="26"/>
+      <c r="C5" s="27"/>
+      <c r="D5" s="27"/>
+      <c r="E5" s="27"/>
+      <c r="F5" s="28"/>
+      <c r="G5" s="29"/>
+      <c r="H5" s="30"/>
+      <c r="I5" s="30"/>
+      <c r="J5" s="31"/>
+      <c r="K5" s="32"/>
+      <c r="L5" s="33"/>
+      <c r="M5" s="33"/>
+      <c r="N5" s="33"/>
+      <c r="O5" s="33"/>
+      <c r="P5" s="33"/>
+      <c r="Q5" s="34"/>
       <c r="T5" s="2"/>
       <c r="U5" s="6"/>
-      <c r="V5" s="24"/>
-      <c r="W5" s="24"/>
-      <c r="X5" s="24"/>
-      <c r="Y5" s="24"/>
-      <c r="Z5" s="24"/>
+      <c r="V5" s="39"/>
+      <c r="W5" s="39"/>
+      <c r="X5" s="39"/>
+      <c r="Y5" s="39"/>
+      <c r="Z5" s="39"/>
       <c r="AA5" s="7"/>
-      <c r="AB5" s="24"/>
-      <c r="AC5" s="24"/>
-      <c r="AD5" s="24"/>
-      <c r="AE5" s="24"/>
-      <c r="AF5" s="24"/>
-      <c r="AG5" s="24"/>
-      <c r="AH5" s="24"/>
-      <c r="AI5" s="24"/>
-      <c r="AJ5" s="24"/>
+      <c r="AB5" s="39"/>
+      <c r="AC5" s="39"/>
+      <c r="AD5" s="39"/>
+      <c r="AE5" s="39"/>
+      <c r="AF5" s="39"/>
+      <c r="AG5" s="39"/>
+      <c r="AH5" s="39"/>
+      <c r="AI5" s="39"/>
+      <c r="AJ5" s="39"/>
     </row>
     <row r="6" spans="1:36" ht="18.95" customHeight="1">
       <c r="A6" s="11">
         <v>4</v>
       </c>
-      <c r="B6" s="13"/>
-      <c r="C6" s="14"/>
-      <c r="D6" s="14"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="15"/>
-      <c r="G6" s="16"/>
-      <c r="H6" s="17"/>
-      <c r="I6" s="17"/>
-      <c r="J6" s="18"/>
-      <c r="K6" s="19"/>
-      <c r="L6" s="20"/>
-      <c r="M6" s="20"/>
-      <c r="N6" s="20"/>
-      <c r="O6" s="20"/>
-      <c r="P6" s="20"/>
-      <c r="Q6" s="21"/>
+      <c r="B6" s="26"/>
+      <c r="C6" s="27"/>
+      <c r="D6" s="27"/>
+      <c r="E6" s="27"/>
+      <c r="F6" s="28"/>
+      <c r="G6" s="29"/>
+      <c r="H6" s="30"/>
+      <c r="I6" s="30"/>
+      <c r="J6" s="31"/>
+      <c r="K6" s="32"/>
+      <c r="L6" s="33"/>
+      <c r="M6" s="33"/>
+      <c r="N6" s="33"/>
+      <c r="O6" s="33"/>
+      <c r="P6" s="33"/>
+      <c r="Q6" s="34"/>
       <c r="T6" s="2"/>
       <c r="U6" s="6"/>
-      <c r="V6" s="24"/>
-      <c r="W6" s="24"/>
-      <c r="X6" s="24"/>
-      <c r="Y6" s="24"/>
-      <c r="Z6" s="24"/>
+      <c r="V6" s="39"/>
+      <c r="W6" s="39"/>
+      <c r="X6" s="39"/>
+      <c r="Y6" s="39"/>
+      <c r="Z6" s="39"/>
       <c r="AA6" s="7"/>
-      <c r="AB6" s="24"/>
-      <c r="AC6" s="24"/>
-      <c r="AD6" s="24"/>
-      <c r="AE6" s="24"/>
-      <c r="AF6" s="24"/>
-      <c r="AG6" s="24"/>
-      <c r="AH6" s="24"/>
-      <c r="AI6" s="24"/>
-      <c r="AJ6" s="24"/>
+      <c r="AB6" s="39"/>
+      <c r="AC6" s="39"/>
+      <c r="AD6" s="39"/>
+      <c r="AE6" s="39"/>
+      <c r="AF6" s="39"/>
+      <c r="AG6" s="39"/>
+      <c r="AH6" s="39"/>
+      <c r="AI6" s="39"/>
+      <c r="AJ6" s="39"/>
     </row>
     <row r="7" spans="1:36" ht="18.95" customHeight="1">
       <c r="A7" s="11">
         <v>5</v>
       </c>
-      <c r="B7" s="13"/>
-      <c r="C7" s="14"/>
-      <c r="D7" s="14"/>
-      <c r="E7" s="14"/>
-      <c r="F7" s="15"/>
-      <c r="G7" s="16"/>
-      <c r="H7" s="17"/>
-      <c r="I7" s="17"/>
-      <c r="J7" s="18"/>
-      <c r="K7" s="19"/>
-      <c r="L7" s="20"/>
-      <c r="M7" s="20"/>
-      <c r="N7" s="20"/>
-      <c r="O7" s="20"/>
-      <c r="P7" s="20"/>
-      <c r="Q7" s="21"/>
+      <c r="B7" s="26"/>
+      <c r="C7" s="27"/>
+      <c r="D7" s="27"/>
+      <c r="E7" s="27"/>
+      <c r="F7" s="28"/>
+      <c r="G7" s="29"/>
+      <c r="H7" s="30"/>
+      <c r="I7" s="30"/>
+      <c r="J7" s="31"/>
+      <c r="K7" s="32"/>
+      <c r="L7" s="33"/>
+      <c r="M7" s="33"/>
+      <c r="N7" s="33"/>
+      <c r="O7" s="33"/>
+      <c r="P7" s="33"/>
+      <c r="Q7" s="34"/>
       <c r="T7" s="2"/>
       <c r="U7" s="6"/>
-      <c r="V7" s="24"/>
-      <c r="W7" s="24"/>
-      <c r="X7" s="24"/>
-      <c r="Y7" s="24"/>
-      <c r="Z7" s="24"/>
+      <c r="V7" s="39"/>
+      <c r="W7" s="39"/>
+      <c r="X7" s="39"/>
+      <c r="Y7" s="39"/>
+      <c r="Z7" s="39"/>
       <c r="AA7" s="7"/>
-      <c r="AB7" s="24"/>
-      <c r="AC7" s="24"/>
-      <c r="AD7" s="24"/>
-      <c r="AE7" s="24"/>
-      <c r="AF7" s="24"/>
-      <c r="AG7" s="24"/>
-      <c r="AH7" s="24"/>
-      <c r="AI7" s="24"/>
-      <c r="AJ7" s="24"/>
+      <c r="AB7" s="39"/>
+      <c r="AC7" s="39"/>
+      <c r="AD7" s="39"/>
+      <c r="AE7" s="39"/>
+      <c r="AF7" s="39"/>
+      <c r="AG7" s="39"/>
+      <c r="AH7" s="39"/>
+      <c r="AI7" s="39"/>
+      <c r="AJ7" s="39"/>
     </row>
     <row r="8" spans="1:36" ht="18.95" customHeight="1">
       <c r="A8" s="11">
         <v>6</v>
       </c>
-      <c r="B8" s="13"/>
-      <c r="C8" s="14"/>
-      <c r="D8" s="14"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="15"/>
-      <c r="G8" s="16"/>
-      <c r="H8" s="17"/>
-      <c r="I8" s="17"/>
-      <c r="J8" s="18"/>
-      <c r="K8" s="19"/>
-      <c r="L8" s="20"/>
-      <c r="M8" s="20"/>
-      <c r="N8" s="20"/>
-      <c r="O8" s="20"/>
-      <c r="P8" s="20"/>
-      <c r="Q8" s="21"/>
+      <c r="B8" s="26"/>
+      <c r="C8" s="27"/>
+      <c r="D8" s="27"/>
+      <c r="E8" s="27"/>
+      <c r="F8" s="28"/>
+      <c r="G8" s="29"/>
+      <c r="H8" s="30"/>
+      <c r="I8" s="30"/>
+      <c r="J8" s="31"/>
+      <c r="K8" s="32"/>
+      <c r="L8" s="33"/>
+      <c r="M8" s="33"/>
+      <c r="N8" s="33"/>
+      <c r="O8" s="33"/>
+      <c r="P8" s="33"/>
+      <c r="Q8" s="34"/>
       <c r="T8" s="2"/>
       <c r="U8" s="6"/>
-      <c r="V8" s="24"/>
-      <c r="W8" s="24"/>
-      <c r="X8" s="24"/>
-      <c r="Y8" s="24"/>
-      <c r="Z8" s="24"/>
+      <c r="V8" s="39"/>
+      <c r="W8" s="39"/>
+      <c r="X8" s="39"/>
+      <c r="Y8" s="39"/>
+      <c r="Z8" s="39"/>
       <c r="AA8" s="7"/>
-      <c r="AB8" s="24"/>
-      <c r="AC8" s="24"/>
-      <c r="AD8" s="24"/>
-      <c r="AE8" s="24"/>
-      <c r="AF8" s="24"/>
-      <c r="AG8" s="24"/>
-      <c r="AH8" s="24"/>
-      <c r="AI8" s="24"/>
-      <c r="AJ8" s="24"/>
+      <c r="AB8" s="39"/>
+      <c r="AC8" s="39"/>
+      <c r="AD8" s="39"/>
+      <c r="AE8" s="39"/>
+      <c r="AF8" s="39"/>
+      <c r="AG8" s="39"/>
+      <c r="AH8" s="39"/>
+      <c r="AI8" s="39"/>
+      <c r="AJ8" s="39"/>
     </row>
     <row r="9" spans="1:36" ht="18.95" customHeight="1">
       <c r="A9" s="11">
         <v>7</v>
       </c>
-      <c r="B9" s="13"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="15"/>
-      <c r="G9" s="16"/>
-      <c r="H9" s="17"/>
-      <c r="I9" s="17"/>
-      <c r="J9" s="18"/>
-      <c r="K9" s="19"/>
-      <c r="L9" s="20"/>
-      <c r="M9" s="20"/>
-      <c r="N9" s="20"/>
-      <c r="O9" s="20"/>
-      <c r="P9" s="20"/>
-      <c r="Q9" s="21"/>
+      <c r="B9" s="26"/>
+      <c r="C9" s="27"/>
+      <c r="D9" s="27"/>
+      <c r="E9" s="27"/>
+      <c r="F9" s="28"/>
+      <c r="G9" s="29"/>
+      <c r="H9" s="30"/>
+      <c r="I9" s="30"/>
+      <c r="J9" s="31"/>
+      <c r="K9" s="32"/>
+      <c r="L9" s="33"/>
+      <c r="M9" s="33"/>
+      <c r="N9" s="33"/>
+      <c r="O9" s="33"/>
+      <c r="P9" s="33"/>
+      <c r="Q9" s="34"/>
       <c r="T9" s="2"/>
       <c r="U9" s="6"/>
-      <c r="V9" s="24"/>
-      <c r="W9" s="24"/>
-      <c r="X9" s="24"/>
-      <c r="Y9" s="24"/>
-      <c r="Z9" s="24"/>
+      <c r="V9" s="39"/>
+      <c r="W9" s="39"/>
+      <c r="X9" s="39"/>
+      <c r="Y9" s="39"/>
+      <c r="Z9" s="39"/>
       <c r="AA9" s="7"/>
-      <c r="AB9" s="24"/>
-      <c r="AC9" s="24"/>
-      <c r="AD9" s="24"/>
-      <c r="AE9" s="24"/>
-      <c r="AF9" s="24"/>
-      <c r="AG9" s="24"/>
-      <c r="AH9" s="24"/>
-      <c r="AI9" s="24"/>
-      <c r="AJ9" s="24"/>
+      <c r="AB9" s="39"/>
+      <c r="AC9" s="39"/>
+      <c r="AD9" s="39"/>
+      <c r="AE9" s="39"/>
+      <c r="AF9" s="39"/>
+      <c r="AG9" s="39"/>
+      <c r="AH9" s="39"/>
+      <c r="AI9" s="39"/>
+      <c r="AJ9" s="39"/>
     </row>
     <row r="10" spans="1:36" ht="18.95" customHeight="1">
       <c r="A10" s="11">
         <v>8</v>
       </c>
-      <c r="B10" s="13"/>
-      <c r="C10" s="14"/>
-      <c r="D10" s="14"/>
-      <c r="E10" s="14"/>
-      <c r="F10" s="15"/>
-      <c r="G10" s="16"/>
-      <c r="H10" s="17"/>
-      <c r="I10" s="17"/>
-      <c r="J10" s="18"/>
-      <c r="K10" s="19"/>
-      <c r="L10" s="20"/>
-      <c r="M10" s="20"/>
-      <c r="N10" s="20"/>
-      <c r="O10" s="20"/>
-      <c r="P10" s="20"/>
-      <c r="Q10" s="21"/>
+      <c r="B10" s="26"/>
+      <c r="C10" s="27"/>
+      <c r="D10" s="27"/>
+      <c r="E10" s="27"/>
+      <c r="F10" s="28"/>
+      <c r="G10" s="29"/>
+      <c r="H10" s="30"/>
+      <c r="I10" s="30"/>
+      <c r="J10" s="31"/>
+      <c r="K10" s="32"/>
+      <c r="L10" s="33"/>
+      <c r="M10" s="33"/>
+      <c r="N10" s="33"/>
+      <c r="O10" s="33"/>
+      <c r="P10" s="33"/>
+      <c r="Q10" s="34"/>
       <c r="T10" s="2"/>
-      <c r="U10" s="24"/>
-      <c r="V10" s="24"/>
-      <c r="W10" s="24"/>
-      <c r="X10" s="24"/>
-      <c r="Y10" s="24"/>
-      <c r="Z10" s="24"/>
-      <c r="AA10" s="24"/>
-      <c r="AB10" s="24"/>
-      <c r="AC10" s="25"/>
-      <c r="AD10" s="25"/>
-      <c r="AE10" s="25"/>
-      <c r="AF10" s="25"/>
-      <c r="AG10" s="25"/>
-      <c r="AH10" s="25"/>
-      <c r="AI10" s="25"/>
-      <c r="AJ10" s="25"/>
+      <c r="U10" s="39"/>
+      <c r="V10" s="39"/>
+      <c r="W10" s="39"/>
+      <c r="X10" s="39"/>
+      <c r="Y10" s="39"/>
+      <c r="Z10" s="39"/>
+      <c r="AA10" s="39"/>
+      <c r="AB10" s="39"/>
+      <c r="AC10" s="42"/>
+      <c r="AD10" s="42"/>
+      <c r="AE10" s="42"/>
+      <c r="AF10" s="42"/>
+      <c r="AG10" s="42"/>
+      <c r="AH10" s="42"/>
+      <c r="AI10" s="42"/>
+      <c r="AJ10" s="42"/>
     </row>
     <row r="11" spans="1:36" ht="18.95" customHeight="1">
       <c r="A11" s="11">
         <v>9</v>
       </c>
-      <c r="B11" s="13"/>
-      <c r="C11" s="14"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="14"/>
-      <c r="F11" s="15"/>
-      <c r="G11" s="16"/>
-      <c r="H11" s="17"/>
-      <c r="I11" s="17"/>
-      <c r="J11" s="18"/>
-      <c r="K11" s="19"/>
-      <c r="L11" s="20"/>
-      <c r="M11" s="20"/>
-      <c r="N11" s="20"/>
-      <c r="O11" s="20"/>
-      <c r="P11" s="20"/>
-      <c r="Q11" s="21"/>
+      <c r="B11" s="26"/>
+      <c r="C11" s="27"/>
+      <c r="D11" s="27"/>
+      <c r="E11" s="27"/>
+      <c r="F11" s="28"/>
+      <c r="G11" s="29"/>
+      <c r="H11" s="30"/>
+      <c r="I11" s="30"/>
+      <c r="J11" s="31"/>
+      <c r="K11" s="32"/>
+      <c r="L11" s="33"/>
+      <c r="M11" s="33"/>
+      <c r="N11" s="33"/>
+      <c r="O11" s="33"/>
+      <c r="P11" s="33"/>
+      <c r="Q11" s="34"/>
       <c r="T11" s="2"/>
-      <c r="U11" s="22"/>
-      <c r="V11" s="22"/>
-      <c r="W11" s="22"/>
-      <c r="X11" s="22"/>
-      <c r="Y11" s="22"/>
-      <c r="Z11" s="22"/>
-      <c r="AA11" s="22"/>
-      <c r="AB11" s="22"/>
-      <c r="AC11" s="22"/>
-      <c r="AD11" s="22"/>
-      <c r="AE11" s="22"/>
-      <c r="AF11" s="22"/>
-      <c r="AG11" s="22"/>
-      <c r="AH11" s="22"/>
-      <c r="AI11" s="22"/>
-      <c r="AJ11" s="22"/>
+      <c r="U11" s="43"/>
+      <c r="V11" s="43"/>
+      <c r="W11" s="43"/>
+      <c r="X11" s="43"/>
+      <c r="Y11" s="43"/>
+      <c r="Z11" s="43"/>
+      <c r="AA11" s="43"/>
+      <c r="AB11" s="43"/>
+      <c r="AC11" s="43"/>
+      <c r="AD11" s="43"/>
+      <c r="AE11" s="43"/>
+      <c r="AF11" s="43"/>
+      <c r="AG11" s="43"/>
+      <c r="AH11" s="43"/>
+      <c r="AI11" s="43"/>
+      <c r="AJ11" s="43"/>
     </row>
     <row r="12" spans="1:36" ht="18.95" customHeight="1">
       <c r="A12" s="11">
         <v>10</v>
       </c>
-      <c r="B12" s="13"/>
-      <c r="C12" s="14"/>
-      <c r="D12" s="14"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="15"/>
-      <c r="G12" s="16"/>
-      <c r="H12" s="17"/>
-      <c r="I12" s="17"/>
-      <c r="J12" s="18"/>
-      <c r="K12" s="19"/>
-      <c r="L12" s="20"/>
-      <c r="M12" s="20"/>
-      <c r="N12" s="20"/>
-      <c r="O12" s="20"/>
-      <c r="P12" s="20"/>
-      <c r="Q12" s="21"/>
+      <c r="B12" s="26"/>
+      <c r="C12" s="27"/>
+      <c r="D12" s="27"/>
+      <c r="E12" s="27"/>
+      <c r="F12" s="28"/>
+      <c r="G12" s="29"/>
+      <c r="H12" s="30"/>
+      <c r="I12" s="30"/>
+      <c r="J12" s="31"/>
+      <c r="K12" s="32"/>
+      <c r="L12" s="33"/>
+      <c r="M12" s="33"/>
+      <c r="N12" s="33"/>
+      <c r="O12" s="33"/>
+      <c r="P12" s="33"/>
+      <c r="Q12" s="34"/>
       <c r="T12" s="2"/>
       <c r="U12" s="2"/>
       <c r="V12" s="2"/>
@@ -1275,22 +1275,22 @@
       <c r="A13" s="11">
         <v>11</v>
       </c>
-      <c r="B13" s="13"/>
-      <c r="C13" s="14"/>
-      <c r="D13" s="14"/>
-      <c r="E13" s="14"/>
-      <c r="F13" s="15"/>
-      <c r="G13" s="16"/>
-      <c r="H13" s="17"/>
-      <c r="I13" s="17"/>
-      <c r="J13" s="18"/>
-      <c r="K13" s="19"/>
-      <c r="L13" s="20"/>
-      <c r="M13" s="20"/>
-      <c r="N13" s="20"/>
-      <c r="O13" s="20"/>
-      <c r="P13" s="20"/>
-      <c r="Q13" s="21"/>
+      <c r="B13" s="26"/>
+      <c r="C13" s="27"/>
+      <c r="D13" s="27"/>
+      <c r="E13" s="27"/>
+      <c r="F13" s="28"/>
+      <c r="G13" s="29"/>
+      <c r="H13" s="30"/>
+      <c r="I13" s="30"/>
+      <c r="J13" s="31"/>
+      <c r="K13" s="32"/>
+      <c r="L13" s="33"/>
+      <c r="M13" s="33"/>
+      <c r="N13" s="33"/>
+      <c r="O13" s="33"/>
+      <c r="P13" s="33"/>
+      <c r="Q13" s="34"/>
       <c r="T13" s="2"/>
       <c r="U13" s="6"/>
       <c r="V13" s="5"/>
@@ -1313,60 +1313,60 @@
       <c r="A14" s="11">
         <v>12</v>
       </c>
-      <c r="B14" s="13"/>
-      <c r="C14" s="14"/>
-      <c r="D14" s="14"/>
-      <c r="E14" s="14"/>
-      <c r="F14" s="15"/>
-      <c r="G14" s="16"/>
-      <c r="H14" s="17"/>
-      <c r="I14" s="17"/>
-      <c r="J14" s="18"/>
-      <c r="K14" s="19"/>
-      <c r="L14" s="20"/>
-      <c r="M14" s="20"/>
-      <c r="N14" s="20"/>
-      <c r="O14" s="20"/>
-      <c r="P14" s="20"/>
-      <c r="Q14" s="21"/>
+      <c r="B14" s="26"/>
+      <c r="C14" s="27"/>
+      <c r="D14" s="27"/>
+      <c r="E14" s="27"/>
+      <c r="F14" s="28"/>
+      <c r="G14" s="29"/>
+      <c r="H14" s="30"/>
+      <c r="I14" s="30"/>
+      <c r="J14" s="31"/>
+      <c r="K14" s="32"/>
+      <c r="L14" s="33"/>
+      <c r="M14" s="33"/>
+      <c r="N14" s="33"/>
+      <c r="O14" s="33"/>
+      <c r="P14" s="33"/>
+      <c r="Q14" s="34"/>
       <c r="T14" s="2"/>
-      <c r="U14" s="23"/>
-      <c r="V14" s="23"/>
-      <c r="W14" s="23"/>
-      <c r="X14" s="23"/>
-      <c r="Y14" s="23"/>
-      <c r="Z14" s="23"/>
-      <c r="AA14" s="23"/>
-      <c r="AB14" s="23"/>
-      <c r="AC14" s="23"/>
-      <c r="AD14" s="23"/>
-      <c r="AE14" s="23"/>
-      <c r="AF14" s="23"/>
-      <c r="AG14" s="23"/>
-      <c r="AH14" s="23"/>
-      <c r="AI14" s="23"/>
-      <c r="AJ14" s="23"/>
+      <c r="U14" s="44"/>
+      <c r="V14" s="44"/>
+      <c r="W14" s="44"/>
+      <c r="X14" s="44"/>
+      <c r="Y14" s="44"/>
+      <c r="Z14" s="44"/>
+      <c r="AA14" s="44"/>
+      <c r="AB14" s="44"/>
+      <c r="AC14" s="44"/>
+      <c r="AD14" s="44"/>
+      <c r="AE14" s="44"/>
+      <c r="AF14" s="44"/>
+      <c r="AG14" s="44"/>
+      <c r="AH14" s="44"/>
+      <c r="AI14" s="44"/>
+      <c r="AJ14" s="44"/>
     </row>
     <row r="15" spans="1:36" ht="18.95" customHeight="1">
       <c r="A15" s="11">
         <v>13</v>
       </c>
-      <c r="B15" s="13"/>
-      <c r="C15" s="14"/>
-      <c r="D15" s="14"/>
-      <c r="E15" s="14"/>
-      <c r="F15" s="15"/>
-      <c r="G15" s="16"/>
-      <c r="H15" s="17"/>
-      <c r="I15" s="17"/>
-      <c r="J15" s="18"/>
-      <c r="K15" s="19"/>
-      <c r="L15" s="20"/>
-      <c r="M15" s="20"/>
-      <c r="N15" s="20"/>
-      <c r="O15" s="20"/>
-      <c r="P15" s="20"/>
-      <c r="Q15" s="21"/>
+      <c r="B15" s="26"/>
+      <c r="C15" s="27"/>
+      <c r="D15" s="27"/>
+      <c r="E15" s="27"/>
+      <c r="F15" s="28"/>
+      <c r="G15" s="29"/>
+      <c r="H15" s="30"/>
+      <c r="I15" s="30"/>
+      <c r="J15" s="31"/>
+      <c r="K15" s="32"/>
+      <c r="L15" s="33"/>
+      <c r="M15" s="33"/>
+      <c r="N15" s="33"/>
+      <c r="O15" s="33"/>
+      <c r="P15" s="33"/>
+      <c r="Q15" s="34"/>
       <c r="T15" s="2"/>
       <c r="U15" s="2"/>
       <c r="V15" s="2"/>
@@ -1389,22 +1389,22 @@
       <c r="A16" s="11">
         <v>14</v>
       </c>
-      <c r="B16" s="13"/>
-      <c r="C16" s="14"/>
-      <c r="D16" s="14"/>
-      <c r="E16" s="14"/>
-      <c r="F16" s="15"/>
-      <c r="G16" s="16"/>
-      <c r="H16" s="17"/>
-      <c r="I16" s="17"/>
-      <c r="J16" s="18"/>
-      <c r="K16" s="19"/>
-      <c r="L16" s="20"/>
-      <c r="M16" s="20"/>
-      <c r="N16" s="20"/>
-      <c r="O16" s="20"/>
-      <c r="P16" s="20"/>
-      <c r="Q16" s="21"/>
+      <c r="B16" s="26"/>
+      <c r="C16" s="27"/>
+      <c r="D16" s="27"/>
+      <c r="E16" s="27"/>
+      <c r="F16" s="28"/>
+      <c r="G16" s="29"/>
+      <c r="H16" s="30"/>
+      <c r="I16" s="30"/>
+      <c r="J16" s="31"/>
+      <c r="K16" s="32"/>
+      <c r="L16" s="33"/>
+      <c r="M16" s="33"/>
+      <c r="N16" s="33"/>
+      <c r="O16" s="33"/>
+      <c r="P16" s="33"/>
+      <c r="Q16" s="34"/>
       <c r="T16" s="2"/>
       <c r="U16" s="2"/>
       <c r="V16" s="2"/>
@@ -1427,22 +1427,22 @@
       <c r="A17" s="11">
         <v>15</v>
       </c>
-      <c r="B17" s="13"/>
-      <c r="C17" s="14"/>
-      <c r="D17" s="14"/>
-      <c r="E17" s="14"/>
-      <c r="F17" s="15"/>
-      <c r="G17" s="16"/>
-      <c r="H17" s="17"/>
-      <c r="I17" s="17"/>
-      <c r="J17" s="18"/>
-      <c r="K17" s="19"/>
-      <c r="L17" s="20"/>
-      <c r="M17" s="20"/>
-      <c r="N17" s="20"/>
-      <c r="O17" s="20"/>
-      <c r="P17" s="20"/>
-      <c r="Q17" s="21"/>
+      <c r="B17" s="26"/>
+      <c r="C17" s="27"/>
+      <c r="D17" s="27"/>
+      <c r="E17" s="27"/>
+      <c r="F17" s="28"/>
+      <c r="G17" s="29"/>
+      <c r="H17" s="30"/>
+      <c r="I17" s="30"/>
+      <c r="J17" s="31"/>
+      <c r="K17" s="32"/>
+      <c r="L17" s="33"/>
+      <c r="M17" s="33"/>
+      <c r="N17" s="33"/>
+      <c r="O17" s="33"/>
+      <c r="P17" s="33"/>
+      <c r="Q17" s="34"/>
       <c r="T17" s="2"/>
       <c r="U17" s="2"/>
       <c r="V17" s="2"/>
@@ -1465,22 +1465,22 @@
       <c r="A18" s="11">
         <v>16</v>
       </c>
-      <c r="B18" s="13"/>
-      <c r="C18" s="14"/>
-      <c r="D18" s="14"/>
-      <c r="E18" s="14"/>
-      <c r="F18" s="15"/>
-      <c r="G18" s="16"/>
-      <c r="H18" s="17"/>
-      <c r="I18" s="17"/>
-      <c r="J18" s="18"/>
-      <c r="K18" s="19"/>
-      <c r="L18" s="20"/>
-      <c r="M18" s="20"/>
-      <c r="N18" s="20"/>
-      <c r="O18" s="20"/>
-      <c r="P18" s="20"/>
-      <c r="Q18" s="21"/>
+      <c r="B18" s="26"/>
+      <c r="C18" s="27"/>
+      <c r="D18" s="27"/>
+      <c r="E18" s="27"/>
+      <c r="F18" s="28"/>
+      <c r="G18" s="29"/>
+      <c r="H18" s="30"/>
+      <c r="I18" s="30"/>
+      <c r="J18" s="31"/>
+      <c r="K18" s="32"/>
+      <c r="L18" s="33"/>
+      <c r="M18" s="33"/>
+      <c r="N18" s="33"/>
+      <c r="O18" s="33"/>
+      <c r="P18" s="33"/>
+      <c r="Q18" s="34"/>
       <c r="T18" s="2"/>
       <c r="U18" s="2"/>
       <c r="V18" s="2"/>
@@ -1503,22 +1503,22 @@
       <c r="A19" s="11">
         <v>17</v>
       </c>
-      <c r="B19" s="13"/>
-      <c r="C19" s="14"/>
-      <c r="D19" s="14"/>
-      <c r="E19" s="14"/>
-      <c r="F19" s="15"/>
-      <c r="G19" s="16"/>
-      <c r="H19" s="17"/>
-      <c r="I19" s="17"/>
-      <c r="J19" s="18"/>
-      <c r="K19" s="19"/>
-      <c r="L19" s="20"/>
-      <c r="M19" s="20"/>
-      <c r="N19" s="20"/>
-      <c r="O19" s="20"/>
-      <c r="P19" s="20"/>
-      <c r="Q19" s="21"/>
+      <c r="B19" s="26"/>
+      <c r="C19" s="27"/>
+      <c r="D19" s="27"/>
+      <c r="E19" s="27"/>
+      <c r="F19" s="28"/>
+      <c r="G19" s="29"/>
+      <c r="H19" s="30"/>
+      <c r="I19" s="30"/>
+      <c r="J19" s="31"/>
+      <c r="K19" s="32"/>
+      <c r="L19" s="33"/>
+      <c r="M19" s="33"/>
+      <c r="N19" s="33"/>
+      <c r="O19" s="33"/>
+      <c r="P19" s="33"/>
+      <c r="Q19" s="34"/>
       <c r="T19" s="2"/>
       <c r="U19" s="2"/>
       <c r="V19" s="2"/>
@@ -1541,22 +1541,22 @@
       <c r="A20" s="11">
         <v>18</v>
       </c>
-      <c r="B20" s="13"/>
-      <c r="C20" s="14"/>
-      <c r="D20" s="14"/>
-      <c r="E20" s="14"/>
-      <c r="F20" s="15"/>
-      <c r="G20" s="16"/>
-      <c r="H20" s="17"/>
-      <c r="I20" s="17"/>
-      <c r="J20" s="18"/>
-      <c r="K20" s="19"/>
-      <c r="L20" s="20"/>
-      <c r="M20" s="20"/>
-      <c r="N20" s="20"/>
-      <c r="O20" s="20"/>
-      <c r="P20" s="20"/>
-      <c r="Q20" s="21"/>
+      <c r="B20" s="26"/>
+      <c r="C20" s="27"/>
+      <c r="D20" s="27"/>
+      <c r="E20" s="27"/>
+      <c r="F20" s="28"/>
+      <c r="G20" s="29"/>
+      <c r="H20" s="30"/>
+      <c r="I20" s="30"/>
+      <c r="J20" s="31"/>
+      <c r="K20" s="32"/>
+      <c r="L20" s="33"/>
+      <c r="M20" s="33"/>
+      <c r="N20" s="33"/>
+      <c r="O20" s="33"/>
+      <c r="P20" s="33"/>
+      <c r="Q20" s="34"/>
       <c r="T20" s="2"/>
       <c r="U20" s="2"/>
       <c r="V20" s="2"/>
@@ -1579,22 +1579,22 @@
       <c r="A21" s="11">
         <v>19</v>
       </c>
-      <c r="B21" s="13"/>
-      <c r="C21" s="14"/>
-      <c r="D21" s="14"/>
-      <c r="E21" s="14"/>
-      <c r="F21" s="15"/>
-      <c r="G21" s="16"/>
-      <c r="H21" s="17"/>
-      <c r="I21" s="17"/>
-      <c r="J21" s="18"/>
-      <c r="K21" s="19"/>
-      <c r="L21" s="20"/>
-      <c r="M21" s="20"/>
-      <c r="N21" s="20"/>
-      <c r="O21" s="20"/>
-      <c r="P21" s="20"/>
-      <c r="Q21" s="21"/>
+      <c r="B21" s="26"/>
+      <c r="C21" s="27"/>
+      <c r="D21" s="27"/>
+      <c r="E21" s="27"/>
+      <c r="F21" s="28"/>
+      <c r="G21" s="29"/>
+      <c r="H21" s="30"/>
+      <c r="I21" s="30"/>
+      <c r="J21" s="31"/>
+      <c r="K21" s="32"/>
+      <c r="L21" s="33"/>
+      <c r="M21" s="33"/>
+      <c r="N21" s="33"/>
+      <c r="O21" s="33"/>
+      <c r="P21" s="33"/>
+      <c r="Q21" s="34"/>
       <c r="T21" s="2"/>
       <c r="U21" s="2"/>
       <c r="V21" s="2"/>
@@ -1617,298 +1617,298 @@
       <c r="A22" s="11">
         <v>20</v>
       </c>
-      <c r="B22" s="13"/>
-      <c r="C22" s="14"/>
-      <c r="D22" s="14"/>
-      <c r="E22" s="14"/>
-      <c r="F22" s="15"/>
-      <c r="G22" s="16"/>
-      <c r="H22" s="17"/>
-      <c r="I22" s="17"/>
-      <c r="J22" s="18"/>
-      <c r="K22" s="19"/>
-      <c r="L22" s="20"/>
-      <c r="M22" s="20"/>
-      <c r="N22" s="20"/>
-      <c r="O22" s="20"/>
-      <c r="P22" s="20"/>
-      <c r="Q22" s="21"/>
+      <c r="B22" s="26"/>
+      <c r="C22" s="27"/>
+      <c r="D22" s="27"/>
+      <c r="E22" s="27"/>
+      <c r="F22" s="28"/>
+      <c r="G22" s="29"/>
+      <c r="H22" s="30"/>
+      <c r="I22" s="30"/>
+      <c r="J22" s="31"/>
+      <c r="K22" s="32"/>
+      <c r="L22" s="33"/>
+      <c r="M22" s="33"/>
+      <c r="N22" s="33"/>
+      <c r="O22" s="33"/>
+      <c r="P22" s="33"/>
+      <c r="Q22" s="34"/>
     </row>
     <row r="23" spans="1:36" ht="18.95" customHeight="1">
       <c r="A23" s="11">
         <v>21</v>
       </c>
-      <c r="B23" s="13"/>
-      <c r="C23" s="14"/>
-      <c r="D23" s="14"/>
-      <c r="E23" s="14"/>
-      <c r="F23" s="15"/>
-      <c r="G23" s="16"/>
-      <c r="H23" s="17"/>
-      <c r="I23" s="17"/>
-      <c r="J23" s="18"/>
-      <c r="K23" s="19"/>
-      <c r="L23" s="20"/>
-      <c r="M23" s="20"/>
-      <c r="N23" s="20"/>
-      <c r="O23" s="20"/>
-      <c r="P23" s="20"/>
-      <c r="Q23" s="21"/>
+      <c r="B23" s="26"/>
+      <c r="C23" s="27"/>
+      <c r="D23" s="27"/>
+      <c r="E23" s="27"/>
+      <c r="F23" s="28"/>
+      <c r="G23" s="29"/>
+      <c r="H23" s="30"/>
+      <c r="I23" s="30"/>
+      <c r="J23" s="31"/>
+      <c r="K23" s="32"/>
+      <c r="L23" s="33"/>
+      <c r="M23" s="33"/>
+      <c r="N23" s="33"/>
+      <c r="O23" s="33"/>
+      <c r="P23" s="33"/>
+      <c r="Q23" s="34"/>
     </row>
     <row r="24" spans="1:36" ht="18.95" customHeight="1">
       <c r="A24" s="11">
         <v>22</v>
       </c>
-      <c r="B24" s="13"/>
-      <c r="C24" s="14"/>
-      <c r="D24" s="14"/>
-      <c r="E24" s="14"/>
-      <c r="F24" s="15"/>
-      <c r="G24" s="16"/>
-      <c r="H24" s="17"/>
-      <c r="I24" s="17"/>
-      <c r="J24" s="18"/>
-      <c r="K24" s="19"/>
-      <c r="L24" s="20"/>
-      <c r="M24" s="20"/>
-      <c r="N24" s="20"/>
-      <c r="O24" s="20"/>
-      <c r="P24" s="20"/>
-      <c r="Q24" s="21"/>
+      <c r="B24" s="26"/>
+      <c r="C24" s="27"/>
+      <c r="D24" s="27"/>
+      <c r="E24" s="27"/>
+      <c r="F24" s="28"/>
+      <c r="G24" s="29"/>
+      <c r="H24" s="30"/>
+      <c r="I24" s="30"/>
+      <c r="J24" s="31"/>
+      <c r="K24" s="32"/>
+      <c r="L24" s="33"/>
+      <c r="M24" s="33"/>
+      <c r="N24" s="33"/>
+      <c r="O24" s="33"/>
+      <c r="P24" s="33"/>
+      <c r="Q24" s="34"/>
     </row>
     <row r="25" spans="1:36" ht="18.95" customHeight="1">
       <c r="A25" s="11">
         <v>23</v>
       </c>
-      <c r="B25" s="13"/>
-      <c r="C25" s="14"/>
-      <c r="D25" s="14"/>
-      <c r="E25" s="14"/>
-      <c r="F25" s="15"/>
-      <c r="G25" s="16"/>
-      <c r="H25" s="17"/>
-      <c r="I25" s="17"/>
-      <c r="J25" s="18"/>
-      <c r="K25" s="19"/>
-      <c r="L25" s="20"/>
-      <c r="M25" s="20"/>
-      <c r="N25" s="20"/>
-      <c r="O25" s="20"/>
-      <c r="P25" s="20"/>
-      <c r="Q25" s="21"/>
+      <c r="B25" s="26"/>
+      <c r="C25" s="27"/>
+      <c r="D25" s="27"/>
+      <c r="E25" s="27"/>
+      <c r="F25" s="28"/>
+      <c r="G25" s="29"/>
+      <c r="H25" s="30"/>
+      <c r="I25" s="30"/>
+      <c r="J25" s="31"/>
+      <c r="K25" s="32"/>
+      <c r="L25" s="33"/>
+      <c r="M25" s="33"/>
+      <c r="N25" s="33"/>
+      <c r="O25" s="33"/>
+      <c r="P25" s="33"/>
+      <c r="Q25" s="34"/>
     </row>
     <row r="26" spans="1:36" ht="18.95" customHeight="1">
       <c r="A26" s="11">
         <v>24</v>
       </c>
-      <c r="B26" s="13"/>
-      <c r="C26" s="14"/>
-      <c r="D26" s="14"/>
-      <c r="E26" s="14"/>
-      <c r="F26" s="15"/>
-      <c r="G26" s="16"/>
-      <c r="H26" s="17"/>
-      <c r="I26" s="17"/>
-      <c r="J26" s="18"/>
-      <c r="K26" s="19"/>
-      <c r="L26" s="20"/>
-      <c r="M26" s="20"/>
-      <c r="N26" s="20"/>
-      <c r="O26" s="20"/>
-      <c r="P26" s="20"/>
-      <c r="Q26" s="21"/>
+      <c r="B26" s="26"/>
+      <c r="C26" s="27"/>
+      <c r="D26" s="27"/>
+      <c r="E26" s="27"/>
+      <c r="F26" s="28"/>
+      <c r="G26" s="29"/>
+      <c r="H26" s="30"/>
+      <c r="I26" s="30"/>
+      <c r="J26" s="31"/>
+      <c r="K26" s="32"/>
+      <c r="L26" s="33"/>
+      <c r="M26" s="33"/>
+      <c r="N26" s="33"/>
+      <c r="O26" s="33"/>
+      <c r="P26" s="33"/>
+      <c r="Q26" s="34"/>
     </row>
     <row r="27" spans="1:36" ht="18.95" customHeight="1">
       <c r="A27" s="11">
         <v>25</v>
       </c>
-      <c r="B27" s="13"/>
-      <c r="C27" s="14"/>
-      <c r="D27" s="14"/>
-      <c r="E27" s="14"/>
-      <c r="F27" s="15"/>
-      <c r="G27" s="16"/>
-      <c r="H27" s="17"/>
-      <c r="I27" s="17"/>
-      <c r="J27" s="18"/>
-      <c r="K27" s="19"/>
-      <c r="L27" s="20"/>
-      <c r="M27" s="20"/>
-      <c r="N27" s="20"/>
-      <c r="O27" s="20"/>
-      <c r="P27" s="20"/>
-      <c r="Q27" s="21"/>
+      <c r="B27" s="26"/>
+      <c r="C27" s="27"/>
+      <c r="D27" s="27"/>
+      <c r="E27" s="27"/>
+      <c r="F27" s="28"/>
+      <c r="G27" s="29"/>
+      <c r="H27" s="30"/>
+      <c r="I27" s="30"/>
+      <c r="J27" s="31"/>
+      <c r="K27" s="32"/>
+      <c r="L27" s="33"/>
+      <c r="M27" s="33"/>
+      <c r="N27" s="33"/>
+      <c r="O27" s="33"/>
+      <c r="P27" s="33"/>
+      <c r="Q27" s="34"/>
     </row>
     <row r="28" spans="1:36" ht="18.95" customHeight="1">
       <c r="A28" s="11">
         <v>26</v>
       </c>
-      <c r="B28" s="13"/>
-      <c r="C28" s="14"/>
-      <c r="D28" s="14"/>
-      <c r="E28" s="14"/>
-      <c r="F28" s="15"/>
-      <c r="G28" s="16"/>
-      <c r="H28" s="17"/>
-      <c r="I28" s="17"/>
-      <c r="J28" s="18"/>
-      <c r="K28" s="19"/>
-      <c r="L28" s="20"/>
-      <c r="M28" s="20"/>
-      <c r="N28" s="20"/>
-      <c r="O28" s="20"/>
-      <c r="P28" s="20"/>
-      <c r="Q28" s="21"/>
+      <c r="B28" s="26"/>
+      <c r="C28" s="27"/>
+      <c r="D28" s="27"/>
+      <c r="E28" s="27"/>
+      <c r="F28" s="28"/>
+      <c r="G28" s="29"/>
+      <c r="H28" s="30"/>
+      <c r="I28" s="30"/>
+      <c r="J28" s="31"/>
+      <c r="K28" s="32"/>
+      <c r="L28" s="33"/>
+      <c r="M28" s="33"/>
+      <c r="N28" s="33"/>
+      <c r="O28" s="33"/>
+      <c r="P28" s="33"/>
+      <c r="Q28" s="34"/>
     </row>
     <row r="29" spans="1:36" ht="18.95" customHeight="1">
       <c r="A29" s="11">
         <v>27</v>
       </c>
-      <c r="B29" s="13"/>
-      <c r="C29" s="14"/>
-      <c r="D29" s="14"/>
-      <c r="E29" s="14"/>
-      <c r="F29" s="15"/>
-      <c r="G29" s="16"/>
-      <c r="H29" s="17"/>
-      <c r="I29" s="17"/>
-      <c r="J29" s="18"/>
-      <c r="K29" s="19"/>
-      <c r="L29" s="20"/>
-      <c r="M29" s="20"/>
-      <c r="N29" s="20"/>
-      <c r="O29" s="20"/>
-      <c r="P29" s="20"/>
-      <c r="Q29" s="21"/>
+      <c r="B29" s="26"/>
+      <c r="C29" s="27"/>
+      <c r="D29" s="27"/>
+      <c r="E29" s="27"/>
+      <c r="F29" s="28"/>
+      <c r="G29" s="29"/>
+      <c r="H29" s="30"/>
+      <c r="I29" s="30"/>
+      <c r="J29" s="31"/>
+      <c r="K29" s="32"/>
+      <c r="L29" s="33"/>
+      <c r="M29" s="33"/>
+      <c r="N29" s="33"/>
+      <c r="O29" s="33"/>
+      <c r="P29" s="33"/>
+      <c r="Q29" s="34"/>
     </row>
     <row r="30" spans="1:36" ht="18.95" customHeight="1">
       <c r="A30" s="11">
         <v>28</v>
       </c>
-      <c r="B30" s="13"/>
-      <c r="C30" s="14"/>
-      <c r="D30" s="14"/>
-      <c r="E30" s="14"/>
-      <c r="F30" s="15"/>
-      <c r="G30" s="16"/>
-      <c r="H30" s="17"/>
-      <c r="I30" s="17"/>
-      <c r="J30" s="18"/>
-      <c r="K30" s="19"/>
-      <c r="L30" s="20"/>
-      <c r="M30" s="20"/>
-      <c r="N30" s="20"/>
-      <c r="O30" s="20"/>
-      <c r="P30" s="20"/>
-      <c r="Q30" s="21"/>
+      <c r="B30" s="26"/>
+      <c r="C30" s="27"/>
+      <c r="D30" s="27"/>
+      <c r="E30" s="27"/>
+      <c r="F30" s="28"/>
+      <c r="G30" s="29"/>
+      <c r="H30" s="30"/>
+      <c r="I30" s="30"/>
+      <c r="J30" s="31"/>
+      <c r="K30" s="32"/>
+      <c r="L30" s="33"/>
+      <c r="M30" s="33"/>
+      <c r="N30" s="33"/>
+      <c r="O30" s="33"/>
+      <c r="P30" s="33"/>
+      <c r="Q30" s="34"/>
     </row>
     <row r="31" spans="1:36" ht="18.95" customHeight="1">
       <c r="A31" s="11">
         <v>29</v>
       </c>
-      <c r="B31" s="13"/>
-      <c r="C31" s="14"/>
-      <c r="D31" s="14"/>
-      <c r="E31" s="14"/>
-      <c r="F31" s="15"/>
-      <c r="G31" s="16"/>
-      <c r="H31" s="17"/>
-      <c r="I31" s="17"/>
-      <c r="J31" s="18"/>
-      <c r="K31" s="19"/>
-      <c r="L31" s="20"/>
-      <c r="M31" s="20"/>
-      <c r="N31" s="20"/>
-      <c r="O31" s="20"/>
-      <c r="P31" s="20"/>
-      <c r="Q31" s="21"/>
+      <c r="B31" s="26"/>
+      <c r="C31" s="27"/>
+      <c r="D31" s="27"/>
+      <c r="E31" s="27"/>
+      <c r="F31" s="28"/>
+      <c r="G31" s="29"/>
+      <c r="H31" s="30"/>
+      <c r="I31" s="30"/>
+      <c r="J31" s="31"/>
+      <c r="K31" s="32"/>
+      <c r="L31" s="33"/>
+      <c r="M31" s="33"/>
+      <c r="N31" s="33"/>
+      <c r="O31" s="33"/>
+      <c r="P31" s="33"/>
+      <c r="Q31" s="34"/>
     </row>
     <row r="32" spans="1:36" ht="18.95" customHeight="1">
       <c r="A32" s="11">
         <v>30</v>
       </c>
-      <c r="B32" s="13"/>
-      <c r="C32" s="14"/>
-      <c r="D32" s="14"/>
-      <c r="E32" s="14"/>
-      <c r="F32" s="15"/>
-      <c r="G32" s="16"/>
-      <c r="H32" s="17"/>
-      <c r="I32" s="17"/>
-      <c r="J32" s="18"/>
-      <c r="K32" s="19"/>
-      <c r="L32" s="20"/>
-      <c r="M32" s="20"/>
-      <c r="N32" s="20"/>
-      <c r="O32" s="20"/>
-      <c r="P32" s="20"/>
-      <c r="Q32" s="21"/>
+      <c r="B32" s="26"/>
+      <c r="C32" s="27"/>
+      <c r="D32" s="27"/>
+      <c r="E32" s="27"/>
+      <c r="F32" s="28"/>
+      <c r="G32" s="29"/>
+      <c r="H32" s="30"/>
+      <c r="I32" s="30"/>
+      <c r="J32" s="31"/>
+      <c r="K32" s="32"/>
+      <c r="L32" s="33"/>
+      <c r="M32" s="33"/>
+      <c r="N32" s="33"/>
+      <c r="O32" s="33"/>
+      <c r="P32" s="33"/>
+      <c r="Q32" s="34"/>
     </row>
     <row r="33" spans="1:17" ht="18.95" customHeight="1">
       <c r="A33" s="11">
         <v>31</v>
       </c>
-      <c r="B33" s="13"/>
-      <c r="C33" s="14"/>
-      <c r="D33" s="14"/>
-      <c r="E33" s="14"/>
-      <c r="F33" s="15"/>
-      <c r="G33" s="16"/>
-      <c r="H33" s="17"/>
-      <c r="I33" s="17"/>
-      <c r="J33" s="18"/>
-      <c r="K33" s="19"/>
-      <c r="L33" s="20"/>
-      <c r="M33" s="20"/>
-      <c r="N33" s="20"/>
-      <c r="O33" s="20"/>
-      <c r="P33" s="20"/>
-      <c r="Q33" s="21"/>
+      <c r="B33" s="26"/>
+      <c r="C33" s="27"/>
+      <c r="D33" s="27"/>
+      <c r="E33" s="27"/>
+      <c r="F33" s="28"/>
+      <c r="G33" s="29"/>
+      <c r="H33" s="30"/>
+      <c r="I33" s="30"/>
+      <c r="J33" s="31"/>
+      <c r="K33" s="32"/>
+      <c r="L33" s="33"/>
+      <c r="M33" s="33"/>
+      <c r="N33" s="33"/>
+      <c r="O33" s="33"/>
+      <c r="P33" s="33"/>
+      <c r="Q33" s="34"/>
     </row>
     <row r="34" spans="1:17" ht="20.100000000000001" customHeight="1">
-      <c r="A34" s="32" t="s">
+      <c r="A34" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B34" s="33"/>
-      <c r="C34" s="33"/>
-      <c r="D34" s="33"/>
-      <c r="E34" s="33"/>
-      <c r="F34" s="34"/>
-      <c r="G34" s="35">
+      <c r="B34" s="14"/>
+      <c r="C34" s="14"/>
+      <c r="D34" s="14"/>
+      <c r="E34" s="14"/>
+      <c r="F34" s="15"/>
+      <c r="G34" s="16">
         <f>SUM(G3:J33)</f>
         <v>0</v>
       </c>
-      <c r="H34" s="36"/>
-      <c r="I34" s="36"/>
-      <c r="J34" s="36"/>
-      <c r="K34" s="36"/>
-      <c r="L34" s="36"/>
-      <c r="M34" s="36"/>
-      <c r="N34" s="36"/>
-      <c r="O34" s="36"/>
-      <c r="P34" s="36"/>
-      <c r="Q34" s="37"/>
+      <c r="H34" s="17"/>
+      <c r="I34" s="17"/>
+      <c r="J34" s="17"/>
+      <c r="K34" s="17"/>
+      <c r="L34" s="17"/>
+      <c r="M34" s="17"/>
+      <c r="N34" s="17"/>
+      <c r="O34" s="17"/>
+      <c r="P34" s="17"/>
+      <c r="Q34" s="18"/>
     </row>
     <row r="35" spans="1:17" ht="20.100000000000001" customHeight="1" thickBot="1">
-      <c r="A35" s="38" t="s">
+      <c r="A35" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="B35" s="39"/>
-      <c r="C35" s="39"/>
-      <c r="D35" s="39"/>
-      <c r="E35" s="39"/>
-      <c r="F35" s="39"/>
-      <c r="G35" s="39"/>
-      <c r="H35" s="39"/>
-      <c r="I35" s="39"/>
-      <c r="J35" s="39"/>
-      <c r="K35" s="39"/>
-      <c r="L35" s="39"/>
-      <c r="M35" s="39"/>
-      <c r="N35" s="39"/>
-      <c r="O35" s="39"/>
-      <c r="P35" s="39"/>
-      <c r="Q35" s="40"/>
+      <c r="B35" s="20"/>
+      <c r="C35" s="20"/>
+      <c r="D35" s="20"/>
+      <c r="E35" s="20"/>
+      <c r="F35" s="20"/>
+      <c r="G35" s="20"/>
+      <c r="H35" s="20"/>
+      <c r="I35" s="20"/>
+      <c r="J35" s="20"/>
+      <c r="K35" s="20"/>
+      <c r="L35" s="20"/>
+      <c r="M35" s="20"/>
+      <c r="N35" s="20"/>
+      <c r="O35" s="20"/>
+      <c r="P35" s="20"/>
+      <c r="Q35" s="21"/>
     </row>
     <row r="36" spans="1:17" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A36" s="10"/>
@@ -1943,6 +1943,120 @@
     <protectedRange sqref="A1:D1 B3:Q33 A35:Q35" name="범위1"/>
   </protectedRanges>
   <mergeCells count="138">
+    <mergeCell ref="B21:F21"/>
+    <mergeCell ref="G21:J21"/>
+    <mergeCell ref="K21:Q21"/>
+    <mergeCell ref="B22:F22"/>
+    <mergeCell ref="G22:J22"/>
+    <mergeCell ref="K22:Q22"/>
+    <mergeCell ref="B23:F23"/>
+    <mergeCell ref="G23:J23"/>
+    <mergeCell ref="G10:J10"/>
+    <mergeCell ref="K10:Q10"/>
+    <mergeCell ref="B14:F14"/>
+    <mergeCell ref="G14:J14"/>
+    <mergeCell ref="K14:Q14"/>
+    <mergeCell ref="B15:F15"/>
+    <mergeCell ref="G15:J15"/>
+    <mergeCell ref="K15:Q15"/>
+    <mergeCell ref="B20:F20"/>
+    <mergeCell ref="G20:J20"/>
+    <mergeCell ref="K20:Q20"/>
+    <mergeCell ref="B18:F18"/>
+    <mergeCell ref="G18:J18"/>
+    <mergeCell ref="K18:Q18"/>
+    <mergeCell ref="B19:F19"/>
+    <mergeCell ref="B17:F17"/>
+    <mergeCell ref="G17:J17"/>
+    <mergeCell ref="K17:Q17"/>
+    <mergeCell ref="G19:J19"/>
+    <mergeCell ref="K19:Q19"/>
+    <mergeCell ref="U11:AJ11"/>
+    <mergeCell ref="B16:F16"/>
+    <mergeCell ref="B8:F8"/>
+    <mergeCell ref="G8:J8"/>
+    <mergeCell ref="K8:Q8"/>
+    <mergeCell ref="B9:F9"/>
+    <mergeCell ref="G9:J9"/>
+    <mergeCell ref="K9:Q9"/>
+    <mergeCell ref="B12:F12"/>
+    <mergeCell ref="G12:J12"/>
+    <mergeCell ref="K12:Q12"/>
+    <mergeCell ref="B13:F13"/>
+    <mergeCell ref="G13:J13"/>
+    <mergeCell ref="K13:Q13"/>
+    <mergeCell ref="U14:AJ14"/>
+    <mergeCell ref="V9:Z9"/>
+    <mergeCell ref="AB9:AC9"/>
+    <mergeCell ref="AD9:AE9"/>
+    <mergeCell ref="B11:F11"/>
+    <mergeCell ref="G11:J11"/>
+    <mergeCell ref="K11:Q11"/>
+    <mergeCell ref="G16:J16"/>
+    <mergeCell ref="K16:Q16"/>
+    <mergeCell ref="B10:F10"/>
+    <mergeCell ref="AF9:AG9"/>
+    <mergeCell ref="AH9:AJ9"/>
+    <mergeCell ref="AB8:AC8"/>
+    <mergeCell ref="AD8:AE8"/>
+    <mergeCell ref="AF8:AG8"/>
+    <mergeCell ref="AH8:AJ8"/>
+    <mergeCell ref="U10:Y10"/>
+    <mergeCell ref="V8:Z8"/>
+    <mergeCell ref="Z10:AB10"/>
+    <mergeCell ref="AC10:AJ10"/>
+    <mergeCell ref="AF7:AG7"/>
+    <mergeCell ref="AH7:AJ7"/>
+    <mergeCell ref="U2:V2"/>
+    <mergeCell ref="W2:AJ2"/>
+    <mergeCell ref="V4:Z4"/>
+    <mergeCell ref="AB4:AC4"/>
+    <mergeCell ref="AD4:AE4"/>
+    <mergeCell ref="AF4:AG4"/>
+    <mergeCell ref="AH4:AJ4"/>
+    <mergeCell ref="V6:Z6"/>
+    <mergeCell ref="AB6:AC6"/>
+    <mergeCell ref="AD6:AE6"/>
+    <mergeCell ref="AF6:AG6"/>
+    <mergeCell ref="AH6:AJ6"/>
+    <mergeCell ref="V5:Z5"/>
+    <mergeCell ref="AB5:AC5"/>
+    <mergeCell ref="AD5:AE5"/>
+    <mergeCell ref="AF5:AG5"/>
+    <mergeCell ref="AH5:AJ5"/>
+    <mergeCell ref="B6:F6"/>
+    <mergeCell ref="G6:J6"/>
+    <mergeCell ref="K6:Q6"/>
+    <mergeCell ref="B7:F7"/>
+    <mergeCell ref="G7:J7"/>
+    <mergeCell ref="K7:Q7"/>
+    <mergeCell ref="V7:Z7"/>
+    <mergeCell ref="AB7:AC7"/>
+    <mergeCell ref="AD7:AE7"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="G4:J4"/>
+    <mergeCell ref="K4:Q4"/>
+    <mergeCell ref="B5:F5"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="G2:J2"/>
+    <mergeCell ref="K2:Q2"/>
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="G3:J3"/>
+    <mergeCell ref="K3:Q3"/>
+    <mergeCell ref="G5:J5"/>
+    <mergeCell ref="K5:Q5"/>
+    <mergeCell ref="G27:J27"/>
+    <mergeCell ref="K27:Q27"/>
+    <mergeCell ref="B28:F28"/>
+    <mergeCell ref="G28:J28"/>
+    <mergeCell ref="K28:Q28"/>
+    <mergeCell ref="K23:Q23"/>
+    <mergeCell ref="B24:F24"/>
+    <mergeCell ref="G24:J24"/>
+    <mergeCell ref="K24:Q24"/>
+    <mergeCell ref="B25:F25"/>
+    <mergeCell ref="G25:J25"/>
+    <mergeCell ref="K25:Q25"/>
     <mergeCell ref="A34:F34"/>
     <mergeCell ref="G34:Q34"/>
     <mergeCell ref="A35:Q35"/>
@@ -1967,120 +2081,6 @@
     <mergeCell ref="G26:J26"/>
     <mergeCell ref="K26:Q26"/>
     <mergeCell ref="B27:F27"/>
-    <mergeCell ref="G27:J27"/>
-    <mergeCell ref="K27:Q27"/>
-    <mergeCell ref="B28:F28"/>
-    <mergeCell ref="G28:J28"/>
-    <mergeCell ref="K28:Q28"/>
-    <mergeCell ref="K23:Q23"/>
-    <mergeCell ref="B24:F24"/>
-    <mergeCell ref="G24:J24"/>
-    <mergeCell ref="K24:Q24"/>
-    <mergeCell ref="B25:F25"/>
-    <mergeCell ref="G25:J25"/>
-    <mergeCell ref="K25:Q25"/>
-    <mergeCell ref="B4:F4"/>
-    <mergeCell ref="G4:J4"/>
-    <mergeCell ref="K4:Q4"/>
-    <mergeCell ref="B5:F5"/>
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="G2:J2"/>
-    <mergeCell ref="K2:Q2"/>
-    <mergeCell ref="B3:F3"/>
-    <mergeCell ref="G3:J3"/>
-    <mergeCell ref="K3:Q3"/>
-    <mergeCell ref="G5:J5"/>
-    <mergeCell ref="K5:Q5"/>
-    <mergeCell ref="B6:F6"/>
-    <mergeCell ref="G6:J6"/>
-    <mergeCell ref="K6:Q6"/>
-    <mergeCell ref="B7:F7"/>
-    <mergeCell ref="G7:J7"/>
-    <mergeCell ref="K7:Q7"/>
-    <mergeCell ref="V7:Z7"/>
-    <mergeCell ref="AB7:AC7"/>
-    <mergeCell ref="AD7:AE7"/>
-    <mergeCell ref="AF7:AG7"/>
-    <mergeCell ref="AH7:AJ7"/>
-    <mergeCell ref="U2:V2"/>
-    <mergeCell ref="W2:AJ2"/>
-    <mergeCell ref="V4:Z4"/>
-    <mergeCell ref="AB4:AC4"/>
-    <mergeCell ref="AD4:AE4"/>
-    <mergeCell ref="AF4:AG4"/>
-    <mergeCell ref="AH4:AJ4"/>
-    <mergeCell ref="V6:Z6"/>
-    <mergeCell ref="AB6:AC6"/>
-    <mergeCell ref="AD6:AE6"/>
-    <mergeCell ref="AF6:AG6"/>
-    <mergeCell ref="AH6:AJ6"/>
-    <mergeCell ref="V5:Z5"/>
-    <mergeCell ref="AB5:AC5"/>
-    <mergeCell ref="AD5:AE5"/>
-    <mergeCell ref="AF5:AG5"/>
-    <mergeCell ref="AH5:AJ5"/>
-    <mergeCell ref="K11:Q11"/>
-    <mergeCell ref="G16:J16"/>
-    <mergeCell ref="K16:Q16"/>
-    <mergeCell ref="B10:F10"/>
-    <mergeCell ref="AF9:AG9"/>
-    <mergeCell ref="AH9:AJ9"/>
-    <mergeCell ref="AB8:AC8"/>
-    <mergeCell ref="AD8:AE8"/>
-    <mergeCell ref="AF8:AG8"/>
-    <mergeCell ref="AH8:AJ8"/>
-    <mergeCell ref="U10:Y10"/>
-    <mergeCell ref="V8:Z8"/>
-    <mergeCell ref="Z10:AB10"/>
-    <mergeCell ref="AC10:AJ10"/>
-    <mergeCell ref="G17:J17"/>
-    <mergeCell ref="K17:Q17"/>
-    <mergeCell ref="G19:J19"/>
-    <mergeCell ref="K19:Q19"/>
-    <mergeCell ref="U11:AJ11"/>
-    <mergeCell ref="B16:F16"/>
-    <mergeCell ref="B8:F8"/>
-    <mergeCell ref="G8:J8"/>
-    <mergeCell ref="K8:Q8"/>
-    <mergeCell ref="B9:F9"/>
-    <mergeCell ref="G9:J9"/>
-    <mergeCell ref="K9:Q9"/>
-    <mergeCell ref="B12:F12"/>
-    <mergeCell ref="G12:J12"/>
-    <mergeCell ref="K12:Q12"/>
-    <mergeCell ref="B13:F13"/>
-    <mergeCell ref="G13:J13"/>
-    <mergeCell ref="K13:Q13"/>
-    <mergeCell ref="U14:AJ14"/>
-    <mergeCell ref="V9:Z9"/>
-    <mergeCell ref="AB9:AC9"/>
-    <mergeCell ref="AD9:AE9"/>
-    <mergeCell ref="B11:F11"/>
-    <mergeCell ref="G11:J11"/>
-    <mergeCell ref="B21:F21"/>
-    <mergeCell ref="G21:J21"/>
-    <mergeCell ref="K21:Q21"/>
-    <mergeCell ref="B22:F22"/>
-    <mergeCell ref="G22:J22"/>
-    <mergeCell ref="K22:Q22"/>
-    <mergeCell ref="B23:F23"/>
-    <mergeCell ref="G23:J23"/>
-    <mergeCell ref="G10:J10"/>
-    <mergeCell ref="K10:Q10"/>
-    <mergeCell ref="B14:F14"/>
-    <mergeCell ref="G14:J14"/>
-    <mergeCell ref="K14:Q14"/>
-    <mergeCell ref="B15:F15"/>
-    <mergeCell ref="G15:J15"/>
-    <mergeCell ref="K15:Q15"/>
-    <mergeCell ref="B20:F20"/>
-    <mergeCell ref="G20:J20"/>
-    <mergeCell ref="K20:Q20"/>
-    <mergeCell ref="B18:F18"/>
-    <mergeCell ref="G18:J18"/>
-    <mergeCell ref="K18:Q18"/>
-    <mergeCell ref="B19:F19"/>
-    <mergeCell ref="B17:F17"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="1.4960629921259843" bottom="0.19685039370078741" header="0.39370078740157483" footer="0.19685039370078741"/>
@@ -2088,7 +2088,7 @@
   <headerFooter>
     <oddHeader xml:space="preserve">&amp;L&amp;G&amp;R
 </oddHeader>
-    <oddFooter>&amp;C&amp;G</oddFooter>
+    <oddFooter>&amp;L&amp;G</oddFooter>
   </headerFooter>
   <colBreaks count="1" manualBreakCount="1">
     <brk id="17" max="1048575" man="1"/>
